--- a/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160616</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) A</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006938</t>
+          <t>160616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) C</t>
+          <t>鹏华中证500指数(LOF) A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.95</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>鹏华中证500指数(LOF) C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.81</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.07</v>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-宏大爆破.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,281 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7302</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5749</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -738,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -789,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>98.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6516</t>
+          <t>0.5982</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -827,36 +643,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>006864</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>国联安核心资产策略混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,7 +877,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1053,36 +907,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5982</t>
+          <t>0.6516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1091,74 +945,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>006864</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>国联安核心资产策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4518</t>
+          <t>0.4183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006864</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安核心资产策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3011</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1172,96 +988,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.48</v>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>